--- a/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_ACF.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_ACF.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -220,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +363,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -545,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -660,6 +679,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -705,26 +739,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1081,6 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1089,20 +1127,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -1116,7 +1154,7 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
@@ -1127,12 +1165,12 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1192,7 @@
         <v>140639724</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1203,7 @@
         <v>63934818</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1214,7 @@
         <v>3658334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1225,7 @@
         <v>219168812</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,7 +1236,7 @@
         <v>88003930</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1247,7 @@
         <v>1278972027</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1258,7 @@
         <v>199246433</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1269,7 @@
         <v>97270199</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1280,7 @@
         <v>11886041</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1291,7 @@
         <v>130896073</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1302,7 @@
         <v>431857367</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1313,7 @@
         <v>239018797</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1324,7 @@
         <v>5164565</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1335,7 @@
         <v>36268430</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1346,7 @@
         <v>46882738</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1357,7 @@
         <v>415566002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1368,7 @@
         <v>133970776</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1379,7 @@
         <v>70821726</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1390,7 @@
         <v>72825347</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1401,7 @@
         <v>166977193</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +1412,7 @@
         <v>176802218</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1423,7 @@
         <v>42675711</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1434,7 @@
         <v>150370950</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1445,7 @@
         <v>170187870</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1456,7 @@
         <v>331126031</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1467,7 @@
         <v>134364014</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1478,7 @@
         <v>181022384</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1489,7 @@
         <v>178985907</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1500,7 @@
         <v>59061180</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1511,7 @@
         <v>63536298</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1484,7 +1522,7 @@
         <v>32497568</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1495,7 +1533,7 @@
         <v>20151588</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +1544,7 @@
         <v>159178059</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1517,7 +1555,7 @@
         <v>93866996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1528,7 +1566,7 @@
         <v>792889246</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1539,7 +1577,7 @@
         <v>307513972</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1550,7 +1588,7 @@
         <v>42084588</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1599,7 @@
         <v>4780047</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -1572,7 +1610,7 @@
         <v>358429008</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -1583,7 +1621,7 @@
         <v>174146519</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -1594,7 +1632,7 @@
         <v>162611850</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -1605,7 +1643,7 @@
         <v>1529266</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -1616,7 +1654,7 @@
         <v>329533092</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1627,7 +1665,7 @@
         <v>266129955</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1638,7 +1676,7 @@
         <v>31214648</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -1649,7 +1687,7 @@
         <v>123976816</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1698,7 @@
         <v>53050479</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1671,7 +1709,7 @@
         <v>182976342</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1682,7 +1720,7 @@
         <v>1257464289</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -1693,7 +1731,7 @@
         <v>66841844</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1742,7 @@
         <v>20374775</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1753,7 @@
         <v>10411857</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -1726,7 +1764,7 @@
         <v>181764016</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -1737,7 +1775,7 @@
         <v>221225934</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -1748,7 +1786,7 @@
         <v>69530281</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -1759,7 +1797,7 @@
         <v>147742893</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
